--- a/biology/Zoologie/Chromis_dimidiata/Chromis_dimidiata.xlsx
+++ b/biology/Zoologie/Chromis_dimidiata/Chromis_dimidiata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La castagnole bicolore (Chromis dimidiata) est une espèce de poisson demoiselle de la famille des Pomacentridae, commune dans les régions coralliennes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est aisément reconnaissable à son corps bicolore, dont les deux premiers tiers sont bruns et le tiers arrière blanc, se terminant par une queue fourchue.
 </t>
@@ -542,9 +556,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette demoiselle est très fréquente dans les récifs de corail de l'océan Indien occidental, ainsi qu'en mer Rouge[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette demoiselle est très fréquente dans les récifs de corail de l'océan Indien occidental, ainsi qu'en mer Rouge.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des poissons territorialistes, vivant le plus souvent en symbiose avec un massif de corail.
 Omnivores opportunistes, ils se nourrissent d'algues, de petits invertébrés, d'œufs et de zooplancton.
